--- a/Propane 34KW/Propane 34KW_Ave_SOOT_Mass_FRAC.xlsx
+++ b/Propane 34KW/Propane 34KW_Ave_SOOT_Mass_FRAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Propane 34KW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Propane 34KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAB1641-A87D-4B93-B095-06DBD7BB6925}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A4C76A-E203-47DD-9B6A-8524478AFDB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="-9675" windowWidth="16200" windowHeight="10995" xr2:uid="{069CA392-2E1E-4C54-B6B6-3F5E8C487561}"/>
+    <workbookView xWindow="25200" yWindow="-9675" windowWidth="16200" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Mass_Frac_Soot" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Position_cm</t>
   </si>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -74,12 +74,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +397,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C35E3F9-F9C0-4BC1-94BB-6D554AA00B7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623D9A20-7E8D-4433-ACB9-078CE2DF78E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -405,7 +409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774FBB31-5774-444D-95AD-16B458D13A24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B3BE87-3C23-4122-AE20-36E39FAB259C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -417,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799AE935-DC0C-4E6D-BB64-BFD869BE1E0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F27391-0409-4B0A-93C1-11AFDB407203}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -429,112 +433,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0A7F3B-8FAD-492F-B6F3-879A79CDC2FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECAD6A7-3C6B-43A0-9EF2-4BB8F9713D8F}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7.2650158775279658E-4</v>
+        <v>0.00064534196660004394</v>
       </c>
       <c r="C2">
-        <v>5.5550683937849018E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.5495879274081113e-05</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.288985151555597E-3</v>
+        <v>0.0017605991704384887</v>
       </c>
       <c r="C3">
-        <v>1.0365902654470347E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.00010352718482832638</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.0814505197347564E-3</v>
+        <v>0.0027044349590610948</v>
       </c>
       <c r="C4">
-        <v>6.8763321929595143E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.8322421018171011e-05</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>5.4499778849591753E-3</v>
+        <v>0.0050990711449029318</v>
       </c>
       <c r="C5">
-        <v>9.2512040542054791E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.1747362370629652e-05</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>4.0890088551861778E-3</v>
+        <v>0.0039660300630096632</v>
       </c>
       <c r="C6">
-        <v>1.6660783871380017E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.00016655239040128792</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
       <c r="B7">
-        <v>2.0645123331675579E-3</v>
+        <v>0.002049492533577738</v>
       </c>
       <c r="C7">
-        <v>8.8528640115836276E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.8467700087589549e-05</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>45</v>
       </c>
       <c r="B8">
-        <v>4.6841838175993797E-4</v>
+        <v>0.00047665120207859542</v>
       </c>
       <c r="C8">
-        <v>8.7385261800318679E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.735180468245863e-05</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>75</v>
       </c>
